--- a/CrossWord_Final_Project/src/test/resources/TestData/TestData.xlsx
+++ b/CrossWord_Final_Project/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{28AD5820-F580-4FAF-8ACE-FD79D0BC3DFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AE7B9B8B-972A-4B23-AF7C-8D0A5DCBFAD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23304" windowHeight="13224" xr2:uid="{B2E27D67-54C6-4074-8F3F-9329432B7E5F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17304" windowHeight="12360" xr2:uid="{B2E27D67-54C6-4074-8F3F-9329432B7E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -38,7 +44,79 @@
     <t>koms@2905</t>
   </si>
   <si>
-    <t>kom@1998</t>
+    <t>komala@29</t>
+  </si>
+  <si>
+    <t>mahakoms@gmail.com</t>
+  </si>
+  <si>
+    <t>preethi@gmail.com</t>
+  </si>
+  <si>
+    <t>preethi@29</t>
+  </si>
+  <si>
+    <t>preethikoms@gmail.com</t>
+  </si>
+  <si>
+    <t>maha29@</t>
+  </si>
+  <si>
+    <t>babykoms@gmail,com</t>
+  </si>
+  <si>
+    <t>valli@gmail.com</t>
+  </si>
+  <si>
+    <t>komi@5</t>
+  </si>
+  <si>
+    <t>valli29@</t>
+  </si>
+  <si>
+    <t>komsvalli@gmail.com</t>
+  </si>
+  <si>
+    <t>komvalli@05</t>
+  </si>
+  <si>
+    <t>valli1998@gmail.com</t>
+  </si>
+  <si>
+    <t>kom@2905</t>
+  </si>
+  <si>
+    <t>vallikoms@gmail.com</t>
+  </si>
+  <si>
+    <t>lakshmi@gmail.com</t>
+  </si>
+  <si>
+    <t>raj@gmail.com</t>
+  </si>
+  <si>
+    <t>raj@17</t>
+  </si>
+  <si>
+    <t>rajkoms@gmail.com</t>
+  </si>
+  <si>
+    <t>rajk@98#</t>
+  </si>
+  <si>
+    <t>lak@29&amp;</t>
+  </si>
+  <si>
+    <t>vallik@98*</t>
+  </si>
+  <si>
+    <t>maha@27$</t>
+  </si>
+  <si>
+    <t>komi@gmail.com</t>
+  </si>
+  <si>
+    <t>kom@#5</t>
   </si>
 </sst>
 </file>
@@ -401,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61E2066-FE76-4EA7-ACED-ACA88EFDD230}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,27 +501,148 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6F419BD0-79D5-4464-9671-CCC81C51006D}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{7F45A862-4866-4B12-9F73-C3058A3E2A2F}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{57EC62AE-5FC4-42BE-9BE5-2E7DD325663E}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{415E1FD1-6E92-4E1B-8721-E275239FD411}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{7F45A862-4866-4B12-9F73-C3058A3E2A2F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{57EC62AE-5FC4-42BE-9BE5-2E7DD325663E}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{7C79ADE4-8C36-4709-B7FE-3E23424E24AA}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{956F3FDC-FE51-4CE6-8C5F-5ACA58AFC8D6}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{6C104CB8-81EB-4560-B9A6-166164EEA293}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{AEDC28E9-DA1D-41F1-BEFE-C87C4CBD65E2}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{B11A5317-CFDD-45CF-8494-42321CD912E6}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{B941CA4B-83F4-409C-8682-94C951D55442}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{9F1185AB-0BE0-4C6F-B2FD-6CBE4CBF43C9}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{4A11D08D-D4BC-4D2B-B784-114B5B32C5B8}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{BCFD0055-1409-4E08-92FA-1CAE67631620}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{D1409C0C-FBE9-4B13-AAB5-668964DB9D21}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{2D2E454A-65D2-4AF6-ADB8-B63A2A58A9A4}"/>
+    <hyperlink ref="A9" r:id="rId14" xr:uid="{DB46B630-9A27-4EA4-A941-FA61482F75B4}"/>
+    <hyperlink ref="B8" r:id="rId15" xr:uid="{EC65AD97-E1CE-4F67-B473-9FC43B3399B8}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{347C15C6-3703-48D3-8198-0CE78122137D}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{48C99461-C0C1-4AC0-8683-ACB1D1D95B5E}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{046FF27B-4150-42DC-9C0C-3BC03D0711E7}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{C839924D-EFC4-4D6D-AD5D-A9946ECA14F8}"/>
+    <hyperlink ref="B11" r:id="rId20" xr:uid="{2D05FB77-AAE0-4914-8444-E907E7AE2CAA}"/>
+    <hyperlink ref="A12" r:id="rId21" xr:uid="{1C3AF3C2-E77E-4CF2-A52E-0A63F15841F1}"/>
+    <hyperlink ref="B12" r:id="rId22" xr:uid="{35FF4281-9015-4B18-AFE1-0349E0D0E237}"/>
+    <hyperlink ref="A13" r:id="rId23" xr:uid="{DCC09A02-F67F-4C3C-B365-642BE01EE5E7}"/>
+    <hyperlink ref="B13" r:id="rId24" xr:uid="{25C0A1B2-E7CF-45B2-8900-30EB2BC206E2}"/>
+    <hyperlink ref="A14" r:id="rId25" xr:uid="{19100A7E-02BD-4296-A4F1-6BD3B8007F0E}"/>
+    <hyperlink ref="B14" r:id="rId26" xr:uid="{2F77CBE9-901E-4F9E-AFB8-4266545F2356}"/>
+    <hyperlink ref="A15" r:id="rId27" xr:uid="{BC751474-76A8-4551-9C37-26FEE734039D}"/>
+    <hyperlink ref="B15" r:id="rId28" xr:uid="{B8B54B63-AF3F-4549-9FE5-8C70355D3AAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>